--- a/Secao03/SEERRO.xlsx
+++ b/Secao03/SEERRO.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/clevison_santos_br_ey_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\gabrielrstan\Aulas\Curso_de_Excel_do_Basico_ao_Avancado_Macro_e_VBA_plus_Power_BI\Secao03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A429548-6159-465C-9FD6-35B290C0305E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0D6D5309-E38C-474C-88E1-ED59A9EF7B6F}"/>
+    <workbookView xWindow="-105" yWindow="375" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Professor" sheetId="1" r:id="rId1"/>
     <sheet name="Aluno" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,8 +54,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,21 +427,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4114F8-F4D8-4055-9735-AF1989B5A92E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F5:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="27"/>
   <cols>
-    <col min="6" max="6" width="32.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="6:8" x14ac:dyDescent="0.65">
+    <row r="5" spans="6:8">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
@@ -453,7 +452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="6:8" x14ac:dyDescent="0.65">
+    <row r="6" spans="6:8">
       <c r="F6" s="2">
         <v>1</v>
       </c>
@@ -465,7 +464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="6:8" x14ac:dyDescent="0.65">
+    <row r="7" spans="6:8">
       <c r="F7" s="2">
         <v>2</v>
       </c>
@@ -477,7 +476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="6:8" x14ac:dyDescent="0.65">
+    <row r="8" spans="6:8">
       <c r="F8" s="2">
         <v>3</v>
       </c>
@@ -489,7 +488,7 @@
         <v>Atenção</v>
       </c>
     </row>
-    <row r="9" spans="6:8" x14ac:dyDescent="0.65">
+    <row r="9" spans="6:8">
       <c r="F9" s="2">
         <v>4</v>
       </c>
@@ -501,7 +500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="6:8" x14ac:dyDescent="0.65">
+    <row r="10" spans="6:8">
       <c r="F10" s="2">
         <v>5</v>
       </c>
@@ -513,7 +512,7 @@
         <v>Atenção</v>
       </c>
     </row>
-    <row r="11" spans="6:8" x14ac:dyDescent="0.65">
+    <row r="11" spans="6:8">
       <c r="F11" s="2">
         <v>6</v>
       </c>
@@ -525,7 +524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="6:8" x14ac:dyDescent="0.65">
+    <row r="12" spans="6:8">
       <c r="F12" s="2">
         <v>7</v>
       </c>
@@ -544,21 +543,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE5D550-7BC9-44F2-9234-03D006D6652C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F5:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="27"/>
   <cols>
-    <col min="6" max="6" width="32.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="6:8" x14ac:dyDescent="0.65">
+    <row r="5" spans="6:8">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
@@ -569,68 +568,89 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="6:8" x14ac:dyDescent="0.65">
+    <row r="6" spans="6:8">
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="2">
         <v>3</v>
       </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="6:8" x14ac:dyDescent="0.65">
+      <c r="H6" s="2">
+        <f>IFERROR(F6+G6,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="6:8">
       <c r="F7" s="2">
         <v>2</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="6:8" x14ac:dyDescent="0.65">
+      <c r="H7" s="2">
+        <f t="shared" ref="H7:H12" si="0">IFERROR(F7+G7,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8">
       <c r="F8" s="2">
         <v>3</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="6:8" x14ac:dyDescent="0.65">
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8">
       <c r="F9" s="2">
         <v>4</v>
       </c>
       <c r="G9" s="2">
         <v>3</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="6:8" x14ac:dyDescent="0.65">
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8">
       <c r="F10" s="2">
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="6:8" x14ac:dyDescent="0.65">
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8">
       <c r="F11" s="2">
         <v>6</v>
       </c>
       <c r="G11" s="2">
         <v>3</v>
       </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="6:8" x14ac:dyDescent="0.65">
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8">
       <c r="F12" s="2">
         <v>7</v>
       </c>
       <c r="G12" s="2">
         <v>3</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
